--- a/zookeeper.xlsx
+++ b/zookeeper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2470,18 +2470,86 @@
     <t>2. 服务器运行时期的Leader选举</t>
   </si>
   <si>
-    <t>变更状态。Leader挂后，余下的非Observer服务器都会讲自己的服务器状态变更为LOOKING，然后开始进入Leader选举过程。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>每个Server会发出一个投票。</t>
+    <r>
+      <t>变更状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。Leader挂后，余下的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非Observer服务器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>都会讲自己的服务器状</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>态变更为LOOKING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，然后开始进入Leader选举过程。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>每个Server会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发出一个投票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
     </r>
     <r>
       <rPr>
@@ -2506,7 +2574,72 @@
     </r>
   </si>
   <si>
-    <t>整个集群完成Leader选举之后，Learner（Follower和Observer的统称）回向Leader服务器进行注册。当Learner服务器想Leader服务器完成注册后，进入数据同步环节。</t>
+    <r>
+      <t>整个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>集群完成Leader选举之后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Learner（Follower和Observer的统称）会向Leader服务器进行注册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。当Learner服务器想Leader服务器完成注册后，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进入数据同步环节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>数据同步流程：（均以消息传递的方式进行）</t>
@@ -2648,28 +2781,106 @@
     <t>Zookeeper的数据同步通常分为四类：</t>
   </si>
   <si>
-    <t>直接差异化同步（DIFF同步）</t>
+    <t>直接差异化同步（DIFF同步）main&lt;Lastzxid&lt;max</t>
   </si>
   <si>
     <t>场景：peerLastZxid介于minCommittedLog和maxCommittedLog之间</t>
   </si>
   <si>
-    <t>先回滚再差异化同步（TRUNC+DIFF同步）</t>
-  </si>
-  <si>
-    <t>场景：当新的Leader服务器发现某个Learner服务器包含了一条自己没有的事务记录，</t>
-  </si>
-  <si>
-    <t>那么就需要让该Learner服务器进行事务回滚--回滚到Leader服务器上存在的，同时也是最接近于peerLastZxid的ZXID</t>
-  </si>
-  <si>
-    <t>仅回滚同步（TRUNC同步）</t>
+    <t>先回滚再差异化同步（TRUNC+DIFF同步）：回滚Learner(Learner中有Leader中没有)</t>
+  </si>
+  <si>
+    <r>
+      <t>场景：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当新的Leader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务器发现某个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Learner服务器包含了一条自己没有的事务记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>那么就需要让该</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Learner服务器进行事务回滚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--回滚到Leader服务器上存在的，同时也是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最接近于peerLastZxid的ZXID</t>
+    </r>
+  </si>
+  <si>
+    <t>仅回滚同步（TRUNC同步）lastZxid&gt;max：回滚Learner(leader中没有，learner中有）</t>
   </si>
   <si>
     <t>peerLastZxid 大于 maxCommittedLog</t>
   </si>
   <si>
-    <t>全量同步（SNAP同步）</t>
+    <t>全量同步（SNAP同步）：Leader中没有Learner的数据</t>
   </si>
   <si>
     <t>peerLastZxid 小于 minCommittedLog</t>
@@ -2756,7 +2967,30 @@
     </r>
   </si>
   <si>
-    <t>服务端会向指定客户端发送一个事件通知来实现分布式的通知功能，然后客户端根据Watcher通知状态和事件类型做出业务上的改变。</t>
+    <r>
+      <t>服务端会向指定客户端发送一个事件通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来实现分布式的通知功能，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>然后客户端根据Watcher通知状态和事件类型做出业务上的改变。</t>
+    </r>
   </si>
   <si>
     <t>工作机制：</t>
@@ -2780,23 +3014,51 @@
     <t>1.服务端接收Watcher并存储</t>
   </si>
   <si>
-    <t>接收到客户端请求，处理请求判断是否需要注册Watcher，需要的话将数据节点的节点路径和ServerCnxn（ServerCnxn代表一个客户端和服务端的连接，</t>
-  </si>
-  <si>
-    <t>实现了Watcher的process接口，此时可以看成一个Watcher对象）存储在WatcherManager的WatchTable和watch2Paths中去。</t>
+    <r>
+      <t>接收到客户端请求，处理请求判断是否需要注册Watcher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，需要的话将数据节点的节点路径和ServerCnxn（ServerCnxn代表一个客户端和服务端的连接，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>实现了Watcher的process接口，此时可以看成一个Watcher对象）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存储在WatcherManager的WatchTable和watch2Paths中去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>2.Watcher触发（Watcher在服务端是一次性的，触发一次就失效了）</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>以服务端接收到 setData()</t>
     </r>
     <r>
@@ -2823,13 +3085,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -2851,7 +3106,49 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>：将通知状态（SyncConnected）、事件类型（NodeDataChanged）以及</t>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将通知状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（SyncConnected）、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事件类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（NodeDataChanged）以及</t>
     </r>
     <r>
       <rPr>
@@ -2997,13 +3294,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>4.</t>
     </r>
     <r>
@@ -3050,7 +3340,20 @@
     </r>
   </si>
   <si>
-    <t>3.调用process方法来发送Watcher事件通知</t>
+    <r>
+      <t>3.调用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>process方法来发送Watcher事件通知</t>
+    </r>
   </si>
   <si>
     <t>这里process主要就是通过ServerCnxn对应的TCP连接发送Watcher事件通知。</t>
@@ -4059,10 +4362,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -4090,15 +4393,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4106,35 +4409,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4143,13 +4434,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4164,7 +4448,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4178,16 +4491,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4195,15 +4500,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4217,11 +4514,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4234,7 +4537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4252,13 +4555,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4276,7 +4597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4288,13 +4615,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4306,31 +4693,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4342,79 +4717,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4425,6 +4728,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4452,17 +4805,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -4486,45 +4828,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4533,10 +4836,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4545,16 +4848,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4563,115 +4866,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5780,8 +6083,8 @@
   <sheetPr/>
   <dimension ref="A1:E285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="L160" sqref="L160"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="G263" sqref="G263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6314,7 +6617,7 @@
       </c>
     </row>
     <row r="119" spans="4:4">
-      <c r="D119" t="s">
+      <c r="D119" s="1" t="s">
         <v>174</v>
       </c>
     </row>
@@ -6359,7 +6662,7 @@
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6424,12 +6727,12 @@
       </c>
     </row>
     <row r="145" spans="4:4">
-      <c r="D145" t="s">
+      <c r="D145" s="2" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="146" spans="5:5">
-      <c r="E146" t="s">
+      <c r="E146" s="2" t="s">
         <v>190</v>
       </c>
     </row>
@@ -6469,7 +6772,7 @@
       </c>
     </row>
     <row r="157" spans="3:3">
-      <c r="C157" t="s">
+      <c r="C157" s="1" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6509,7 +6812,7 @@
       </c>
     </row>
     <row r="186" spans="3:3">
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6549,7 +6852,7 @@
       </c>
     </row>
     <row r="194" spans="2:2">
-      <c r="B194" t="s">
+      <c r="B194" s="2" t="s">
         <v>214</v>
       </c>
     </row>

--- a/zookeeper.xlsx
+++ b/zookeeper.xlsx
@@ -2471,6 +2471,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>变更状态</t>
     </r>
     <r>
@@ -2528,6 +2536,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>每个Server会</t>
     </r>
     <r>
@@ -2575,6 +2590,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>整个</t>
     </r>
     <r>
@@ -2791,6 +2813,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>场景：</t>
     </r>
     <r>
@@ -2838,6 +2867,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>那么就需要让该</t>
     </r>
     <r>
@@ -2968,6 +3004,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>服务端会向指定客户端发送一个事件通知</t>
     </r>
     <r>
@@ -3015,6 +3059,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>接收到客户端请求，处理请求判断是否需要注册Watcher</t>
     </r>
     <r>
@@ -3030,6 +3082,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>实现了Watcher的process接口，此时可以看成一个Watcher对象）</t>
     </r>
     <r>
@@ -3059,6 +3118,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>以服务端接收到 setData()</t>
     </r>
     <r>
@@ -3085,6 +3151,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -3294,6 +3367,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>4.</t>
     </r>
     <r>
@@ -3341,6 +3421,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>3.调用</t>
     </r>
     <r>
@@ -4364,8 +4451,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -4392,76 +4479,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -4471,28 +4488,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4515,14 +4510,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4537,7 +4624,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4549,19 +4642,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4573,43 +4666,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4627,13 +4690,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4645,7 +4702,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4657,13 +4738,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4675,13 +4786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4693,31 +4798,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4728,6 +4815,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4749,58 +4886,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4823,8 +4910,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4836,10 +4923,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4848,16 +4935,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4866,115 +4953,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6083,8 +6170,8 @@
   <sheetPr/>
   <dimension ref="A1:E285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="G263" sqref="G263"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="U84" sqref="U84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/zookeeper.xlsx
+++ b/zookeeper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="2"/>
+    <workbookView windowWidth="24525" windowHeight="12240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="290">
   <si>
     <t>zookeeper 的使用场景</t>
   </si>
@@ -4451,8 +4451,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -4480,6 +4480,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4494,25 +4509,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4523,40 +4523,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4580,6 +4548,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4587,14 +4563,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4602,14 +4586,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4624,13 +4624,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4642,7 +4732,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4660,31 +4786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4696,115 +4798,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4815,6 +4815,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4833,37 +4842,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4885,24 +4874,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4915,6 +4891,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4923,10 +4923,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4935,16 +4935,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4953,115 +4953,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5368,13 +5368,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>143510</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>131445</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5392,7 +5392,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1019175" y="28117800"/>
+          <a:off x="1019175" y="28803600"/>
           <a:ext cx="3239135" cy="3046095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5698,8 +5698,8 @@
   <sheetPr/>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5870,7 +5870,7 @@
   <sheetPr/>
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
@@ -6168,10 +6168,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E285"/>
+  <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="U84" sqref="U84"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="A235" sqref="A235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6369,959 +6369,974 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3">
-      <c r="C47" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3">
-      <c r="C48" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
-      <c r="C52" s="1" t="s">
+    <row r="56" spans="3:3">
+      <c r="C56" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="3:3">
-      <c r="C55" t="s">
+    <row r="59" spans="3:3">
+      <c r="C59" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="3:3">
-      <c r="C56" t="s">
+    <row r="60" spans="3:3">
+      <c r="C60" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="1" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="2"/>
-      <c r="C62" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="1" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="2" t="s">
+    <row r="71" spans="2:2">
+      <c r="B71" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
-      <c r="B68" t="s">
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
-      <c r="B69" t="s">
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="1" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="1" t="s">
+    <row r="76" spans="2:2">
+      <c r="B76" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="2" t="s">
+    <row r="77" spans="2:2">
+      <c r="B77" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="1" t="s">
+    <row r="78" spans="2:2">
+      <c r="B78" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="1" t="s">
+    <row r="79" spans="2:2">
+      <c r="B79" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="2:3">
-      <c r="B76" s="1"/>
-      <c r="C76" s="2" t="s">
+    <row r="80" spans="2:3">
+      <c r="B80" s="1"/>
+      <c r="C80" s="2" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3">
-      <c r="B77" s="1"/>
-      <c r="C77" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3">
-      <c r="B78" s="1"/>
-      <c r="C78" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3">
-      <c r="B79" s="1"/>
-      <c r="C79" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" s="1"/>
-      <c r="C81" t="s">
-        <v>141</v>
+      <c r="C81" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="B82" s="1"/>
       <c r="C82" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="B83" s="1"/>
       <c r="C83" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" s="1"/>
+      <c r="C85" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" s="1"/>
+      <c r="C86" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" s="1"/>
+      <c r="C87" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="84" spans="2:3">
-      <c r="B84" s="1"/>
-      <c r="C84" s="1" t="s">
+    <row r="88" spans="2:3">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="85" spans="2:3">
-      <c r="B85" s="2"/>
-      <c r="C85" t="s">
+    <row r="89" spans="2:3">
+      <c r="B89" s="2"/>
+      <c r="C89" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="86" spans="3:4">
-      <c r="C86" s="2"/>
-      <c r="D86" t="s">
+    <row r="90" spans="3:4">
+      <c r="C90" s="2"/>
+      <c r="D90" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="1" t="s">
+    <row r="91" spans="2:2">
+      <c r="B91" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="3:3">
-      <c r="C88" s="1" t="s">
+    <row r="92" spans="3:3">
+      <c r="C92" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="3:3">
-      <c r="C89" s="1" t="s">
+    <row r="93" spans="3:3">
+      <c r="C93" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="1" t="s">
+    <row r="95" spans="1:1">
+      <c r="A95" s="1" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3">
-      <c r="C93" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3">
-      <c r="C94" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3">
-      <c r="C95" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="1" t="s">
+    <row r="105" spans="1:1">
+      <c r="A105" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
-      <c r="B102" t="s">
+    <row r="106" spans="2:2">
+      <c r="B106" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
-      <c r="B103" t="s">
+    <row r="107" spans="2:2">
+      <c r="B107" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="109" spans="3:3">
-      <c r="C109" t="s">
+    <row r="113" spans="3:3">
+      <c r="C113" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="110" spans="4:4">
-      <c r="D110" s="1" t="s">
+    <row r="114" spans="4:4">
+      <c r="D114" s="1" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="111" spans="4:4">
-      <c r="D111" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="112" spans="4:4">
-      <c r="D112" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="113" spans="5:5">
-      <c r="E113" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="114" spans="5:5">
-      <c r="E114" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="115" spans="4:4">
       <c r="D115" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116" spans="4:4">
       <c r="D116" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3">
-      <c r="C118" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117" spans="5:5">
+      <c r="E117" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" spans="5:5">
+      <c r="E118" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="119" spans="4:4">
       <c r="D119" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4">
+      <c r="D123" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="120" spans="4:4">
-      <c r="D120" s="2" t="s">
+    <row r="124" spans="4:4">
+      <c r="D124" s="2" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="121" spans="4:4">
-      <c r="D121" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="122" spans="4:4">
-      <c r="D122" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="123" spans="5:5">
-      <c r="E123" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="124" spans="5:5">
-      <c r="E124" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="125" spans="4:4">
       <c r="D125" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="4:4">
       <c r="D126" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="127" spans="5:5">
+      <c r="E127" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="128" spans="5:5">
+      <c r="E128" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4">
+      <c r="D129" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4">
+      <c r="D130" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="1" t="s">
+    <row r="133" spans="1:1">
+      <c r="A133" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="2" t="s">
+    <row r="134" spans="2:2">
+      <c r="B134" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
-      <c r="B131" t="s">
+    <row r="135" spans="2:2">
+      <c r="B135" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="3:3">
-      <c r="C132" s="1" t="s">
+    <row r="136" spans="3:3">
+      <c r="C136" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="133" spans="3:3">
-      <c r="C133" s="1" t="s">
+    <row r="137" spans="3:3">
+      <c r="C137" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="134" spans="3:3">
-      <c r="C134" s="1" t="s">
+    <row r="138" spans="3:3">
+      <c r="C138" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="136" spans="2:2">
-      <c r="B136" t="s">
+    <row r="140" spans="2:2">
+      <c r="B140" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="137" spans="3:3">
-      <c r="C137" s="2" t="s">
+    <row r="141" spans="3:3">
+      <c r="C141" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="138" spans="3:3">
-      <c r="C138" s="2" t="s">
+    <row r="142" spans="3:3">
+      <c r="C142" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="139" spans="3:3">
-      <c r="C139" s="2" t="s">
+    <row r="143" spans="3:3">
+      <c r="C143" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="141" spans="2:2">
-      <c r="B141" t="s">
+    <row r="145" spans="2:2">
+      <c r="B145" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="142" spans="3:3">
-      <c r="C142" s="1" t="s">
+    <row r="146" spans="3:3">
+      <c r="C146" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="143" spans="4:4">
-      <c r="D143" t="s">
+    <row r="147" spans="4:4">
+      <c r="D147" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="144" spans="3:3">
-      <c r="C144" s="1" t="s">
+    <row r="148" spans="3:3">
+      <c r="C148" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="145" spans="4:4">
-      <c r="D145" s="2" t="s">
+    <row r="149" spans="4:4">
+      <c r="D149" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="146" spans="5:5">
-      <c r="E146" s="2" t="s">
+    <row r="150" spans="5:5">
+      <c r="E150" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="147" spans="3:3">
-      <c r="C147" s="1" t="s">
+    <row r="151" spans="3:3">
+      <c r="C151" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="148" spans="4:4">
-      <c r="D148" t="s">
+    <row r="152" spans="4:4">
+      <c r="D152" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="149" spans="3:3">
-      <c r="C149" s="1" t="s">
+    <row r="153" spans="3:3">
+      <c r="C153" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="150" spans="4:4">
-      <c r="D150" t="s">
+    <row r="154" spans="4:4">
+      <c r="D154" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="151" spans="4:4">
-      <c r="D151" t="s">
+    <row r="155" spans="4:4">
+      <c r="D155" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="1" t="s">
+    <row r="159" spans="1:1">
+      <c r="A159" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="156" spans="2:2">
-      <c r="B156" s="2" t="s">
+    <row r="160" spans="2:2">
+      <c r="B160" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="157" spans="3:3">
-      <c r="C157" s="1" t="s">
+    <row r="161" spans="3:3">
+      <c r="C161" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="158" spans="2:2">
-      <c r="B158" t="s">
+    <row r="162" spans="2:2">
+      <c r="B162" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="159" spans="3:3">
-      <c r="C159" t="s">
+    <row r="163" spans="3:3">
+      <c r="C163" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="160" spans="3:3">
-      <c r="C160" t="s">
+    <row r="164" spans="3:3">
+      <c r="C164" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="161" spans="3:3">
-      <c r="C161" t="s">
+    <row r="165" spans="3:3">
+      <c r="C165" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="1" t="s">
+    <row r="167" spans="1:1">
+      <c r="A167" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="1" t="s">
+    <row r="188" spans="1:1">
+      <c r="A188" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="185" spans="2:2">
-      <c r="B185" t="s">
+    <row r="189" spans="2:2">
+      <c r="B189" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="186" spans="3:3">
-      <c r="C186" s="1" t="s">
+    <row r="190" spans="3:3">
+      <c r="C190" s="1" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="187" spans="4:4">
-      <c r="D187" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2">
-      <c r="B188" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="189" spans="3:3">
-      <c r="C189" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="190" spans="4:4">
-      <c r="D190" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="191" spans="4:4">
       <c r="D191" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3">
+      <c r="C193" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="194" spans="4:4">
+      <c r="D194" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="195" spans="4:4">
+      <c r="D195" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="192" spans="4:4">
-      <c r="D192" s="2" t="s">
+    <row r="196" spans="4:4">
+      <c r="D196" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="193" spans="4:4">
-      <c r="D193" s="2" t="s">
+    <row r="197" spans="4:4">
+      <c r="D197" s="2" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2">
-      <c r="B194" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="195" spans="3:3">
-      <c r="C195" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="196" spans="2:2">
-      <c r="B196" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3">
+      <c r="C199" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
-      <c r="A200" s="1" t="s">
+    <row r="204" spans="1:1">
+      <c r="A204" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="201" spans="2:2">
-      <c r="B201" t="s">
+    <row r="205" spans="2:2">
+      <c r="B205" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="202" spans="3:3">
-      <c r="C202" t="s">
+    <row r="206" spans="3:3">
+      <c r="C206" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="203" spans="3:3">
-      <c r="C203" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="204" spans="3:3">
-      <c r="C204" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="205" spans="3:3">
-      <c r="C205" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="206" spans="2:2">
-      <c r="B206" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="207" spans="3:3">
       <c r="C207" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="208" spans="2:2">
-      <c r="B208" t="s">
-        <v>227</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3">
+      <c r="C208" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="209" spans="3:3">
       <c r="C209" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="210" spans="3:3">
-      <c r="C210" t="s">
-        <v>229</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="211" spans="3:3">
       <c r="C211" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="212" spans="3:3">
-      <c r="C212" t="s">
-        <v>231</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="213" spans="3:3">
       <c r="C213" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="216" spans="2:2">
-      <c r="B216" t="s">
-        <v>234</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3">
+      <c r="C214" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3">
+      <c r="C215" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3">
+      <c r="C216" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="217" spans="3:3">
       <c r="C217" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3">
+      <c r="C221" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="218" spans="3:3">
-      <c r="C218" t="s">
+    <row r="222" spans="3:3">
+      <c r="C222" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
-      <c r="A220" s="1" t="s">
+    <row r="224" spans="1:1">
+      <c r="A224" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="221" spans="2:2">
-      <c r="B221" s="2" t="s">
+    <row r="225" spans="2:2">
+      <c r="B225" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="222" spans="2:2">
-      <c r="B222" s="2" t="s">
+    <row r="226" spans="2:2">
+      <c r="B226" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="223" spans="2:2">
-      <c r="B223" t="s">
+    <row r="227" spans="2:2">
+      <c r="B227" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="224" spans="2:2">
-      <c r="B224" t="s">
+    <row r="228" spans="2:2">
+      <c r="B228" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="225" spans="3:3">
-      <c r="C225" t="s">
+    <row r="229" spans="3:3">
+      <c r="C229" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
-      <c r="A228" s="1" t="s">
+    <row r="232" spans="1:1">
+      <c r="A232" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="229" spans="2:2">
-      <c r="B229" s="2" t="s">
+    <row r="233" spans="2:2">
+      <c r="B233" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
-      <c r="A231" s="1" t="s">
+    <row r="235" spans="1:1">
+      <c r="A235" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="232" spans="2:2">
-      <c r="B232" t="s">
+    <row r="236" spans="2:2">
+      <c r="B236" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="233" spans="2:2">
-      <c r="B233" t="s">
+    <row r="237" spans="2:2">
+      <c r="B237" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="234" spans="2:2">
-      <c r="B234" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="235" spans="2:2">
-      <c r="B235" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="240" spans="2:2">
-      <c r="B240" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="241" spans="2:2">
-      <c r="B241" t="s">
-        <v>254</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="243" spans="2:2">
       <c r="B243" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="244" spans="3:3">
-      <c r="C244" s="1" t="s">
+    <row r="248" spans="3:3">
+      <c r="C248" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="245" spans="2:2">
-      <c r="B245" s="2" t="s">
+    <row r="249" spans="2:2">
+      <c r="B249" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="246" spans="3:3">
-      <c r="C246" s="2" t="s">
+    <row r="250" spans="3:3">
+      <c r="C250" s="2" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="247" spans="3:3">
-      <c r="C247" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="248" spans="2:2">
-      <c r="B248" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="249" spans="3:3">
-      <c r="C249" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="250" spans="4:4">
-      <c r="D250" s="2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="251" spans="3:3">
       <c r="C251" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3">
+      <c r="C253" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="254" spans="4:4">
+      <c r="D254" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="255" spans="3:3">
+      <c r="C255" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="252" spans="3:3">
-      <c r="C252" s="1" t="s">
+    <row r="256" spans="3:3">
+      <c r="C256" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="253" spans="4:4">
-      <c r="D253" s="1" t="s">
+    <row r="257" spans="4:4">
+      <c r="D257" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="254" spans="3:3">
-      <c r="C254" t="s">
+    <row r="258" spans="3:3">
+      <c r="C258" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="255" spans="4:4">
-      <c r="D255" t="s">
+    <row r="259" spans="4:4">
+      <c r="D259" t="s">
         <v>267</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="258" spans="2:2">
-      <c r="B258" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="259" spans="2:2">
-      <c r="B259" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="265" spans="2:2">
-      <c r="B265" t="s">
-        <v>274</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="266" spans="2:2">
       <c r="B266" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="267" spans="2:2">
-      <c r="B267" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="270" spans="2:2">
       <c r="B270" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="272" spans="2:2">
-      <c r="B272" s="2" t="s">
+    <row r="276" spans="2:2">
+      <c r="B276" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="273" spans="2:2">
-      <c r="B273" s="2" t="s">
+    <row r="277" spans="2:2">
+      <c r="B277" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="274" spans="2:3">
-      <c r="B274" s="2"/>
-      <c r="C274" s="1" t="s">
+    <row r="278" spans="2:3">
+      <c r="B278" s="2"/>
+      <c r="C278" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="275" spans="2:2">
-      <c r="B275" s="2" t="s">
+    <row r="279" spans="2:2">
+      <c r="B279" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
-      <c r="A277" s="1" t="s">
+    <row r="281" spans="1:1">
+      <c r="A281" s="1" t="s">
         <v>283</v>
-      </c>
-    </row>
-    <row r="278" spans="2:2">
-      <c r="B278" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1">
-      <c r="A280" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="281" spans="2:2">
-      <c r="B281" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="282" spans="2:2">
       <c r="B282" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="285" spans="2:2">
       <c r="B285" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2">
+      <c r="B286" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2">
+      <c r="B289" t="s">
         <v>289</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B196" r:id="rId2" display="https://www.cnblogs.com/rocky24/p/4859206.html"/>
+    <hyperlink ref="B200" r:id="rId2" display="https://www.cnblogs.com/rocky24/p/4859206.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
